--- a/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,7; 93,94</t>
+          <t>82,45; 93,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,59; 90,12</t>
+          <t>77,36; 90,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,71; 87,48</t>
+          <t>72,27; 87,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,37; 90,31</t>
+          <t>77,79; 90,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,25; 93,68</t>
+          <t>79,97; 93,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,6; 80,45</t>
+          <t>64,15; 80,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,56; 91,2</t>
+          <t>83,28; 91,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,74; 90,61</t>
+          <t>81,1; 90,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,67; 81,64</t>
+          <t>70,74; 82,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,62; 82,67</t>
+          <t>75,84; 82,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,83; 89,51</t>
+          <t>83,96; 89,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,21; 84,51</t>
+          <t>77,15; 84,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,05; 88,48</t>
+          <t>82,97; 88,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,13; 92,37</t>
+          <t>87,47; 92,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,65; 86,79</t>
+          <t>80,79; 86,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,18; 84,84</t>
+          <t>80,33; 84,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,54; 90,46</t>
+          <t>86,38; 90,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,01; 84,45</t>
+          <t>79,79; 84,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,68; 76,5</t>
+          <t>70,17; 76,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,64; 84,76</t>
+          <t>79,86; 84,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,64; 81,89</t>
+          <t>76,54; 81,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,95; 81,1</t>
+          <t>75,76; 81,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,49; 89,56</t>
+          <t>85,4; 89,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,1; 83,11</t>
+          <t>78,33; 83,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,94; 77,96</t>
+          <t>74,03; 78,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,28; 86,52</t>
+          <t>83,33; 86,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,16; 81,79</t>
+          <t>78,16; 81,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,16; 80,64</t>
+          <t>74,21; 80,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,89; 86,33</t>
+          <t>80,45; 86,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,66; 81,01</t>
+          <t>74,31; 80,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,14; 85,63</t>
+          <t>79,82; 85,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,81; 88,98</t>
+          <t>83,65; 89,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,63; 86,92</t>
+          <t>81,27; 86,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,91; 82,24</t>
+          <t>78,02; 82,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,98; 86,91</t>
+          <t>83,08; 87,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,0; 83,16</t>
+          <t>78,97; 83,0</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,69; 77,33</t>
+          <t>71,83; 77,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,39; 84,35</t>
+          <t>79,4; 84,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,24; 84,5</t>
+          <t>79,39; 84,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,57; 83,24</t>
+          <t>78,32; 83,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,97; 89,06</t>
+          <t>84,94; 89,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,78; 88,28</t>
+          <t>83,67; 88,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,97; 79,54</t>
+          <t>75,98; 79,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,06; 86,27</t>
+          <t>83,11; 86,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>82,65; 86,02</t>
+          <t>82,45; 85,87</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,73; 77,79</t>
+          <t>74,7; 77,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,08; 84,57</t>
+          <t>82,11; 84,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,59; 81,36</t>
+          <t>78,63; 81,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>80,29; 82,9</t>
+          <t>80,22; 82,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,53; 88,88</t>
+          <t>86,63; 88,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,16; 84,62</t>
+          <t>82,06; 84,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,96; 80,04</t>
+          <t>77,91; 80,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>84,8; 86,45</t>
+          <t>84,77; 86,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,74; 82,65</t>
+          <t>80,76; 82,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,45; 93,93</t>
+          <t>82,66; 94,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,36; 90,29</t>
+          <t>76,98; 89,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,27; 87,38</t>
+          <t>71,28; 87,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,79; 90,92</t>
+          <t>78,54; 90,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,97; 93,06</t>
+          <t>80,44; 93,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,15; 80,72</t>
+          <t>63,91; 80,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,28; 91,5</t>
+          <t>82,97; 91,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,1; 90,33</t>
+          <t>81,32; 90,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,74; 82,01</t>
+          <t>70,55; 81,95</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,84; 82,35</t>
+          <t>75,67; 82,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,96; 89,53</t>
+          <t>83,89; 89,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,15; 84,43</t>
+          <t>77,11; 84,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,97; 88,89</t>
+          <t>83,19; 88,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,47; 92,52</t>
+          <t>87,36; 92,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,79; 86,82</t>
+          <t>80,6; 86,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,33; 84,58</t>
+          <t>80,2; 84,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,38; 90,16</t>
+          <t>86,67; 90,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,79; 84,8</t>
+          <t>79,74; 84,63</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,17; 76,06</t>
+          <t>70,46; 76,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,86; 84,84</t>
+          <t>79,7; 84,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,54; 81,92</t>
+          <t>76,73; 81,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,76; 81,28</t>
+          <t>75,62; 81,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,4; 89,71</t>
+          <t>85,41; 89,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,33; 83,08</t>
+          <t>77,88; 82,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,03; 78,05</t>
+          <t>73,89; 78,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,33; 86,61</t>
+          <t>83,52; 86,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,16; 81,83</t>
+          <t>78,14; 81,8</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,21; 80,95</t>
+          <t>74,06; 80,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,45; 86,27</t>
+          <t>80,57; 86,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,31; 80,89</t>
+          <t>74,12; 80,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,36</t>
+          <t>79,82; 85,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,65; 89,04</t>
+          <t>83,64; 89,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,27; 86,71</t>
+          <t>81,56; 86,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,02; 82,2</t>
+          <t>78,23; 82,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,08; 87,08</t>
+          <t>83,16; 86,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,97; 83,0</t>
+          <t>78,91; 83,08</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,83; 77,11</t>
+          <t>71,75; 77,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,4; 84,5</t>
+          <t>79,13; 84,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,39; 84,36</t>
+          <t>79,55; 84,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,32; 83,5</t>
+          <t>78,43; 83,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,94; 89,14</t>
+          <t>84,81; 89,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,67; 88,32</t>
+          <t>83,96; 88,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,98; 79,75</t>
+          <t>76,01; 79,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,11; 86,44</t>
+          <t>83,08; 86,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>82,45; 85,87</t>
+          <t>82,61; 85,89</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>74,7; 77,74</t>
+          <t>74,74; 77,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,11; 84,71</t>
+          <t>82,04; 84,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,46</t>
+          <t>78,63; 81,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>80,22; 82,89</t>
+          <t>80,33; 82,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,63; 88,91</t>
+          <t>86,68; 88,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,06; 84,61</t>
+          <t>82,03; 84,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,91; 80,0</t>
+          <t>78,01; 79,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>84,77; 86,4</t>
+          <t>84,73; 86,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,76; 82,7</t>
+          <t>80,73; 82,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76,76%</t>
+          <t>81,37%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,66; 94,05</t>
+          <t>77,9; 83,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,98; 89,86</t>
+          <t>83,73; 88,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,28; 87,36</t>
+          <t>77,41; 83,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,54; 90,91</t>
+          <t>83,43; 88,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,44; 93,14</t>
+          <t>87,39; 92,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,91; 80,84</t>
+          <t>78,93; 84,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,97; 91,02</t>
+          <t>81,18; 85,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,32; 90,41</t>
+          <t>86,38; 89,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,55; 81,95</t>
+          <t>79,22; 83,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>82,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,01%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,8%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>76,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>80,02%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,67; 82,39</t>
+          <t>70,46; 76,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,89; 89,53</t>
+          <t>79,7; 84,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,11; 84,25</t>
+          <t>76,73; 81,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,19; 88,65</t>
+          <t>75,62; 81,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,36; 92,46</t>
+          <t>85,41; 89,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,6; 86,6</t>
+          <t>77,88; 82,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,2; 84,72</t>
+          <t>73,89; 78,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,67; 90,35</t>
+          <t>83,52; 86,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,74; 84,63</t>
+          <t>78,14; 81,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,48%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,52%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>84,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>76,01%</t>
+          <t>80,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>81,13%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,46; 76,28</t>
+          <t>74,06; 80,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,7; 84,74</t>
+          <t>80,57; 86,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,73; 81,66</t>
+          <t>74,12; 80,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,62; 81,08</t>
+          <t>79,82; 85,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,41; 89,88</t>
+          <t>83,64; 89,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,88; 82,97</t>
+          <t>81,56; 86,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,89; 78,02</t>
+          <t>78,23; 82,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,52; 86,79</t>
+          <t>83,16; 86,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,14; 81,8</t>
+          <t>78,91; 83,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>82,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,56%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>77,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>84,29%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,06; 80,65</t>
+          <t>71,75; 77,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,57; 86,38</t>
+          <t>79,13; 84,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,12; 80,71</t>
+          <t>79,55; 84,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,57</t>
+          <t>78,43; 83,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,64; 89,02</t>
+          <t>84,81; 89,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,56; 86,89</t>
+          <t>83,96; 88,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,23; 82,49</t>
+          <t>76,01; 79,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,16; 86,97</t>
+          <t>83,08; 86,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,91; 83,08</t>
+          <t>82,61; 85,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>76,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,03%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,25%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>78,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>81,75%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,75; 77,26</t>
+          <t>74,74; 77,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,13; 84,5</t>
+          <t>82,04; 84,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,55; 84,29</t>
+          <t>78,63; 81,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,43; 83,1</t>
+          <t>80,33; 82,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,81; 89,25</t>
+          <t>86,68; 88,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,96; 88,25</t>
+          <t>82,03; 84,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,01; 79,73</t>
+          <t>78,01; 79,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,08; 86,36</t>
+          <t>84,73; 86,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>82,61; 85,89</t>
+          <t>80,73; 82,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>76,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>83,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>80,04%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>81,62%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>87,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>83,39%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>78,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>85,62%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>81,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>74,74; 77,68</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>82,04; 84,79</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>78,63; 81,36</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>80,33; 82,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>86,68; 88,93</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>82,03; 84,62</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>78,01; 79,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>84,73; 86,46</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>80,73; 82,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,9; 83,79</t>
+          <t>77,83; 83,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,73; 88,85</t>
+          <t>84,01; 89,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,41; 83,76</t>
+          <t>77,62; 83,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,43; 88,32</t>
+          <t>83,07; 88,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 92,01</t>
+          <t>87,45; 91,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,93; 84,74</t>
+          <t>79,06; 84,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,18; 85,15</t>
+          <t>81,35; 85,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,38; 89,78</t>
+          <t>86,28; 89,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,22; 83,41</t>
+          <t>79,16; 83,48</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,46; 76,28</t>
+          <t>70,26; 76,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,7; 84,74</t>
+          <t>79,73; 84,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,73; 81,66</t>
+          <t>76,7; 81,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,62; 81,08</t>
+          <t>75,84; 80,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,41; 89,88</t>
+          <t>85,26; 89,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,88; 82,97</t>
+          <t>77,87; 83,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,89; 78,02</t>
+          <t>73,96; 77,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,52; 86,79</t>
+          <t>83,37; 86,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,14; 81,8</t>
+          <t>78,3; 81,71</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,06; 80,65</t>
+          <t>74,2; 80,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,57; 86,38</t>
+          <t>80,83; 86,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,12; 80,71</t>
+          <t>74,69; 81,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,57</t>
+          <t>79,75; 85,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,64; 89,02</t>
+          <t>84,06; 89,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,56; 86,89</t>
+          <t>81,77; 86,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,23; 82,49</t>
+          <t>77,91; 82,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,16; 86,97</t>
+          <t>83,01; 87,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,91; 83,08</t>
+          <t>79,24; 83,23</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,75; 77,26</t>
+          <t>71,8; 77,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,13; 84,5</t>
+          <t>79,7; 84,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 84,29</t>
+          <t>79,02; 84,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,43; 83,1</t>
+          <t>78,36; 83,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,81; 89,25</t>
+          <t>84,8; 89,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,96; 88,25</t>
+          <t>84,13; 88,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,01; 79,73</t>
+          <t>76,19; 79,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,08; 86,36</t>
+          <t>83,07; 86,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,61; 85,89</t>
+          <t>82,61; 85,85</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,74; 77,68</t>
+          <t>74,82; 77,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,04; 84,79</t>
+          <t>82,2; 84,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,63; 81,36</t>
+          <t>78,54; 81,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,33; 82,85</t>
+          <t>80,24; 82,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,68; 88,93</t>
+          <t>86,71; 88,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,03; 84,62</t>
+          <t>82,12; 84,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,01; 79,91</t>
+          <t>77,85; 80,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,73; 86,46</t>
+          <t>84,79; 86,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,73; 82,71</t>
+          <t>80,71; 82,65</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta fresca (excluyendo zumos) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>560594</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>608734</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>544232</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>591502</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>626569</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>551430</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1152095</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1235302</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1095662</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>539425; 579623</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>590955; 626331</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>522960; 565633</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>571807; 608217</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>609543; 640531</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>531941; 570544</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1123718; 1175397</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1208423; 1258268</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1065908; 1124085</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1536</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>706003</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>835360</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>808804</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>759514</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>904728</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>838736</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1465518</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1740088</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1647541</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>675023; 734811</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>809257; 858914</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>782001; 832985</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>733580; 783382</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>879072; 924552</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>809177; 865679</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1426008; 1500089</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1705847; 1772354</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1612051; 1682230</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>527010</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>632803</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>590114</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>565865</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>670885</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>662189</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1092874</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1303687</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1252303</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>503480; 547731</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>610679; 652926</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>566592; 615969</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>545344; 584168</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>651482; 690761</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>641909; 682425</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1061468; 1121705</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1270490; 1332371</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1223137; 1284661</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1541</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>702346</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>777383</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>768156</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>839554</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>913679</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>898436</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1541901</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1691062</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1666591</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>675910; 726604</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>755391; 803438</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>739327; 788132</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>813062; 863955</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>888519; 932763</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>876389; 920968</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1507757; 1579903</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1657679; 1723772</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1633459; 1697508</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2659</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2683</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5130</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5364</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2495953</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2854281</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2711305</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2756435</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3115859</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2950790</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5252388</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5970140</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5662096</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2449382; 2544630</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2812667; 2899943</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2660576; 2752130</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2709677; 2799375</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3078892; 3154466</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2905980; 2993329</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5177785; 5322608</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5912374; 6029929</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5590496; 5724540</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>